--- a/结果/SVM分类/样本熵/SVM_BE_sampen.xlsx
+++ b/结果/SVM分类/样本熵/SVM_BE_sampen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EA051E-2B2A-4781-A6AE-8D7B94B0DD16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7413C65A-796D-486C-8C45-CA8B67A770E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="648" windowWidth="19668" windowHeight="11148" activeTab="4" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_sampen" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BE_sampen_d2" sheetId="3" r:id="rId3"/>
     <sheet name="BE_sampen_d3" sheetId="4" r:id="rId4"/>
     <sheet name="BE_sampen_d4" sheetId="5" r:id="rId5"/>
+    <sheet name="BE_sampen_multi_attri" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,6 +33,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3601BC-C60D-4F4B-BF45-EAF775CAD05A}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A17" sqref="A17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -665,6 +683,52 @@
       </c>
       <c r="K21">
         <v>0.98765400000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" ref="A22:K22" si="0">AVERAGE(A17:A21)</f>
+        <v>0.95124999999999993</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95125000000000015</v>
+      </c>
+      <c r="D22" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91013926000000001</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91166800000000003</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90746800000000005</v>
+      </c>
+      <c r="H22" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99512120000000004</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99518079999999998</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99506159999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1190,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038F356E-2E53-4F5D-A1EC-80E67A689BA4}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43A1D58-1F4E-44E9-99BC-3981F73CFB4F}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1762,4 +1826,211 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841829A2-30FB-4131-BAB1-F56BB550A1C2}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99.375</v>
+      </c>
+      <c r="B2">
+        <v>98.8506</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>98.75</v>
+      </c>
+      <c r="B4">
+        <v>98.734200000000001</v>
+      </c>
+      <c r="C4">
+        <v>98.7654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>98.75</v>
+      </c>
+      <c r="B6">
+        <v>97.5</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>98.125</v>
+      </c>
+      <c r="B8">
+        <v>97.619</v>
+      </c>
+      <c r="C8">
+        <v>98.684200000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>97.5</v>
+      </c>
+      <c r="B10">
+        <v>95.714299999999994</v>
+      </c>
+      <c r="C10">
+        <v>98.888900000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99.375</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>98.648600000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>98.125</v>
+      </c>
+      <c r="B17">
+        <v>96.25</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>98.75</v>
+      </c>
+      <c r="B19">
+        <v>97.435900000000004</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>98.75</v>
+      </c>
+      <c r="B21">
+        <v>98.823499999999996</v>
+      </c>
+      <c r="C21">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98.125</v>
+      </c>
+      <c r="B23">
+        <v>95.774600000000007</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>98.75</v>
+      </c>
+      <c r="B28">
+        <v>98.734200000000001</v>
+      </c>
+      <c r="C28">
+        <v>98.7654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>98.125</v>
+      </c>
+      <c r="B30">
+        <v>96.385499999999993</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>98.125</v>
+      </c>
+      <c r="B32">
+        <v>97.561000000000007</v>
+      </c>
+      <c r="C32">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>99.375</v>
+      </c>
+      <c r="B34">
+        <v>98.734200000000001</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>98.125</v>
+      </c>
+      <c r="B36">
+        <v>96.103899999999996</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>98.541666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>97.614726666666684</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>99.409140000000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/结果/SVM分类/样本熵/SVM_BE_sampen.xlsx
+++ b/结果/SVM分类/样本熵/SVM_BE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\SVM分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7413C65A-796D-486C-8C45-CA8B67A770E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81B2B97-724D-49C3-BE77-8E020DADD1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
+    <workbookView xWindow="12600" yWindow="168" windowWidth="13620" windowHeight="12360" firstSheet="4" activeTab="5" xr2:uid="{214D8CFA-0F06-4C0F-921B-64B13E0D0097}"/>
   </bookViews>
   <sheets>
     <sheet name="BE_sampen" sheetId="1" r:id="rId1"/>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3601BC-C60D-4F4B-BF45-EAF775CAD05A}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -729,6 +729,20 @@
       <c r="K22" s="1">
         <f t="shared" si="0"/>
         <v>0.99506159999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A22:C22)</f>
+        <v>0.95166666666666677</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E22:G22)</f>
+        <v>0.90975842000000007</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I22:K22)</f>
+        <v>0.99512119999999993</v>
       </c>
     </row>
   </sheetData>
@@ -740,10 +754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB512A4-F4CF-491D-8F14-24F6691523A6}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -986,6 +1000,20 @@
       </c>
       <c r="K21">
         <v>0.94186000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.91541666666666677</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.8756484000000001</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.95682219999999996</v>
       </c>
     </row>
   </sheetData>
@@ -996,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122B213B-E2B6-47FF-840F-1A26BA6B4D36}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1270,20 @@
       </c>
       <c r="K21">
         <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.90375000000000005</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.8613733333333331</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.94571553333333325</v>
       </c>
     </row>
   </sheetData>
@@ -1252,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038F356E-2E53-4F5D-A1EC-80E67A689BA4}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1512,6 +1554,20 @@
       <c r="G22" s="1">
         <f>AVERAGE(G17:G21)</f>
         <v>0.47217039999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGE(A17:C21)</f>
+        <v>0.66125</v>
+      </c>
+      <c r="E27">
+        <f>AVERAGE(E17:G21)</f>
+        <v>0.46679440000000005</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I17:K21)</f>
+        <v>0.85624440000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1832,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841829A2-30FB-4131-BAB1-F56BB550A1C2}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
